--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>包装工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,16 @@
   </si>
   <si>
     <t>N+2年预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内制</t>
+  </si>
+  <si>
+    <t>外注</t>
+  </si>
+  <si>
+    <t>工区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,100 +448,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="21" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="13.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="21" width="8.7265625" style="1"/>
+    <col min="22" max="23" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>包装工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,40 @@
   </si>
   <si>
     <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年计类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当初年计</t>
+  </si>
+  <si>
+    <t>修正年计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APC06</t>
+  </si>
+  <si>
+    <t>注意：根据需求更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年计类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,9 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,92 +485,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="13.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="21" width="8.7265625" style="1"/>
-    <col min="22" max="23" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" style="1" customWidth="1"/>
+    <col min="10" max="23" width="8.7265625" style="1"/>
+    <col min="24" max="25" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -542,12 +585,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$3</xm:f>
+            <xm:f>备注!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$C$7:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$E$7:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -557,22 +612,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,10 @@
   </si>
   <si>
     <t>内外区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -505,79 +505,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -622,33 +622,33 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>70000</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,10 @@
   </si>
   <si>
     <t>包装工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -505,13 +505,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -520,64 +520,64 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -622,33 +622,33 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>70000</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -42,43 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
     <t>N+1年预测</t>
   </si>
   <si>
@@ -135,6 +98,54 @@
   </si>
   <si>
     <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +499,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -505,13 +516,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -520,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -529,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -538,46 +549,46 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -622,33 +633,33 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>70000</v>
@@ -656,10 +667,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0620.xlsx
+++ b/SPPSApi/Doc/Template/FS0620.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -42,43 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
     <t>N+1年预测</t>
   </si>
   <si>
@@ -135,6 +98,54 @@
   </si>
   <si>
     <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,11 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,96 +504,97 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.54296875" style="1" customWidth="1"/>
-    <col min="10" max="23" width="8.7265625" style="1"/>
-    <col min="24" max="25" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="12.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="15.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" style="3" customWidth="1"/>
+    <col min="10" max="23" width="8.7265625" style="3"/>
+    <col min="24" max="25" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -622,44 +639,44 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
         <v>70000</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
